--- a/Data Files/SFDC/AccountDetails.xlsx
+++ b/Data Files/SFDC/AccountDetails.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Katalon Studio\My First Web UI Project\Data Files\SFDC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Katalon Studio\My First Web UI Project\Data Files\SFDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A0A805-7A24-4D01-B7FF-0EF7A0E60CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4CF6C3-8ACA-4BFE-AE56-AC4D0E3ACD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Profile</t>
   </si>
@@ -49,16 +49,104 @@
   </si>
   <si>
     <t>3_4 - Order Management - AP</t>
+  </si>
+  <si>
+    <t>2_1 - Inside Sales</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>Sales Operations</t>
+  </si>
+  <si>
+    <t>Order Management</t>
+  </si>
+  <si>
+    <t>Inside Sales</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>5x</t>
+  </si>
+  <si>
+    <t>ManagementAP</t>
+  </si>
+  <si>
+    <t>3_1 - Order Fulfillment - ManagerClone</t>
+  </si>
+  <si>
+    <t>Order Fulfillment</t>
+  </si>
+  <si>
+    <t>Sales Operations Clone</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Export Screening Status</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Potential Match</t>
+  </si>
+  <si>
+    <t>No Match</t>
+  </si>
+  <si>
+    <t>Unverified</t>
+  </si>
+  <si>
+    <t>2_4 - Regional Sales VPsClone</t>
+  </si>
+  <si>
+    <t>VPsClone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,8 +169,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -104,19 +192,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -398,70 +493,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
